--- a/DWAVJobKorea/Result/RecruitList.xlsx
+++ b/DWAVJobKorea/Result/RecruitList.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVJobKorea\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVJobKorea\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1074AEE-C000-476A-9A47-6242B9649033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3015" windowWidth="15885" windowHeight="11850" xr2:uid="{C489E1F5-4435-494D-BE7B-371B0CE43CF3}"/>
+    <workbookView xWindow="-28800" yWindow="3015" windowWidth="15885" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="20220224" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,210 +33,332 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모집공고명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신입/경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고용형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>근무지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모집마감일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모집분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>복지 및 급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업무와 삶의 균형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사내문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>승진 기회 및 가능성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경영진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜비즈테크파트너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[LG그룹] RPA, 은행 및 금융IT FrontEnd, 모바일, 챗봇, MSA 개발자 인재채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 마포구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~02/28(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, 안드로이드, 프론트엔드, CAN, front end, IOS, MSA, 소프트웨어개발, 솔루션, ERP, 웹프로그래머, Java, 아이폰, 안드로이드, 응용프로그래머, 전산전공, Python, 인공지능(AI), 빅데이터, R, 챗봇(Chatbot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현대오토에버㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA 부문 경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~03/22(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, 소프트웨어개발, SM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜한국인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경남 창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~05/16(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>.NET, C#, Delphi, VisualC, VisualC++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/16(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>솔루션, .NET, Java, Python, VB.NET, 시스템분석, 시스템설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET, C#, Delphi, VisualC, VisualC++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔루션, .NET, Java, Python, VB.NET, 시스템분석, 시스템설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동국시스템즈㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[동국시스템즈] RPA솔루션 개발자 모집(신입, 경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~03/12(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SI, SM, C#, Java, VisualBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현대IT&amp;E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021년 경력사원 수시채용 (웹/모바일 공통 외)[신기술(RPA)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 강남구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~03/16(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경영지원, 네트워크관리, 보안관리, 시스템운영, 정보보안, 아이폰, 안드로이드, Application, C#, Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜두잇시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA(Robot Process Automation) 개발자(경력, 신입) 정규직 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신입·경력2년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 마포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~03/31(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, x-javaScript, Ui-Path, a.Works, 네트웍구축, 통신, 웹프로그래머, Java, 응용프로그래머, C#, Java, 자바스크립트, 로봇·자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>프로티앤에스㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA-Uipath 시스템 개발 및 운영 모집공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 성동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>위칸소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, IT 경력자 모십니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경력2년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울 종로구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~03/11(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, 소프트웨어개발, BI, BigData, CRM, ERP, .NET, C#, Java, Python, VisualBasic, 자바스크립트, 소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜대원씨앤씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[선릉/SM] 생명보험사 RPA 시스템 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/31(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA, ERP, SM, 웹프로그래머, 응용프로그래머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB530F4-76E1-4DFB-8B09-6DA8B9E1BACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -691,19 +812,19 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>3.5</v>
@@ -726,25 +847,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3.3</v>
@@ -767,25 +888,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>3.3</v>
@@ -808,25 +929,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>3.3</v>
@@ -849,25 +970,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>3.3</v>
@@ -890,25 +1011,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>2.9</v>
@@ -931,66 +1052,48 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>3.2</v>
-      </c>
-      <c r="I9">
-        <v>3.6</v>
-      </c>
-      <c r="J9">
-        <v>3.7</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>2.5</v>
-      </c>
-      <c r="M9">
-        <v>2.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>2.5</v>
@@ -1013,25 +1116,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>3.6</v>
@@ -1054,48 +1157,48 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>2.7</v>
@@ -1123,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A6EDB-D15E-4926-8A65-84B095B726F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
